--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value497.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value497.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170079987058196</v>
+        <v>1.345780849456787</v>
       </c>
       <c r="B1">
-        <v>2.954845304560599</v>
+        <v>3.303092241287231</v>
       </c>
       <c r="C1">
-        <v>3.657139053232162</v>
+        <v>5.47325325012207</v>
       </c>
       <c r="D1">
-        <v>1.33888391036359</v>
+        <v>1.687505602836609</v>
       </c>
       <c r="E1">
-        <v>0.9002223248436592</v>
+        <v>0.9854691624641418</v>
       </c>
     </row>
   </sheetData>
